--- a/src/public/files/sample-create-users.xlsx
+++ b/src/public/files/sample-create-users.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ED31F1-1B8D-441E-BD41-361C2F939410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50203AC-8E4B-459C-98DA-0CF8B6C238B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24915" yWindow="2130" windowWidth="17280" windowHeight="9465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -29,92 +29,65 @@
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t>Trương Ngọc Trọng</t>
-  </si>
-  <si>
-    <t>Bình Định</t>
-  </si>
-  <si>
-    <t>Nguyễn Phúc Ân</t>
-  </si>
-  <si>
-    <t>2000-03-18</t>
-  </si>
-  <si>
-    <t>Huỳnh Minh Hoàng</t>
-  </si>
-  <si>
-    <t>2000-10-10</t>
-  </si>
-  <si>
-    <t>2000-12-12</t>
-  </si>
-  <si>
-    <t>0123456789</t>
-  </si>
-  <si>
-    <t>0358489850</t>
-  </si>
-  <si>
-    <t>Quảng Ngãi</t>
-  </si>
-  <si>
-    <t>DakLak</t>
-  </si>
-  <si>
-    <t>0365898458</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>HuynhMinhHoangABC@gmail.com</t>
-  </si>
-  <si>
-    <t>NguyenPhucAnDEG@gmail.com</t>
-  </si>
-  <si>
-    <t>TruongNgocTrongJHK@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>0359854856</t>
-  </si>
-  <si>
-    <t>2000-03-03</t>
-  </si>
-  <si>
-    <t>HCM</t>
-  </si>
-  <si>
-    <t>NguyenVanAGHJ@gmail.com</t>
-  </si>
-  <si>
-    <t>Trần Thị B</t>
-  </si>
-  <si>
-    <t>2001-02-05</t>
-  </si>
-  <si>
-    <t>0359856547</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>NguyenThiBHHH@gmail.com</t>
-  </si>
-  <si>
     <t>STT</t>
+  </si>
+  <si>
+    <t>Lê Lan</t>
+  </si>
+  <si>
+    <t>17-09-2021</t>
+  </si>
+  <si>
+    <t>0986580484</t>
+  </si>
+  <si>
+    <t>178A Duong Quang Ham</t>
+  </si>
+  <si>
+    <t>Ldlan1222121b7@gmail.com</t>
+  </si>
+  <si>
+    <t>0906230484</t>
+  </si>
+  <si>
+    <t>Ldlan21212b7@gmail.com</t>
+  </si>
+  <si>
+    <t>Lê Đình Lan</t>
+  </si>
+  <si>
+    <t>11-03-2001</t>
+  </si>
+  <si>
+    <t>0906580384</t>
+  </si>
+  <si>
+    <t>Ldlan12b7s@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Huy</t>
+  </si>
+  <si>
+    <t>20-10-2001</t>
+  </si>
+  <si>
+    <t>1231213123</t>
+  </si>
+  <si>
+    <t>Đồng nai</t>
+  </si>
+  <si>
+    <t>Nguyeva@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,14 +99,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,14 +122,6 @@
       <b/>
       <sz val="13"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="13"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -234,32 +191,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
@@ -597,15 +549,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7" style="10" customWidth="1"/>
+    <col min="1" max="1" width="7" style="7" customWidth="1"/>
     <col min="2" max="2" width="23.77734375" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="21" style="3" customWidth="1"/>
@@ -614,9 +566,9 @@
     <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -631,188 +583,192 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="9"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
@@ -820,7 +776,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="9"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
@@ -828,7 +784,7 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="9"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
@@ -836,7 +792,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="9"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
@@ -844,7 +800,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="9"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
@@ -852,7 +808,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="9"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
@@ -860,7 +816,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="9"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
@@ -868,7 +824,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="9"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
@@ -876,7 +832,7 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="9"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
@@ -884,7 +840,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="9"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
@@ -892,17 +848,10 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="9"/>
+      <c r="F26" s="6"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>